--- a/doc/appweb_trpr03_grille.xlsx
+++ b/doc/appweb_trpr03_grille.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webapp\tp3-depart\tp3\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willc\OneDrive - Cégep de Sainte-Foy\CEGEP\Site Web\Cours Web\Session 4\Dev App Web\tp3-depart\tp3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAE7276-AE39-477D-B8B8-45DD77222843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D396CB3-A4D1-465B-A6BE-D58E6FDA01BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grille_evaluation" sheetId="1" r:id="rId1"/>
@@ -1760,7 +1760,7 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1798,11 +1798,11 @@
         <v>75</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D2" s="50">
         <f>VLOOKUP(C2,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" s="35"/>
     </row>
@@ -1812,11 +1812,11 @@
         <v>76</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D3" s="50">
         <f>VLOOKUP(C3,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="44"/>
     </row>
@@ -1826,11 +1826,11 @@
         <v>77</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D4" s="50">
         <f>VLOOKUP(C4,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" s="44"/>
     </row>
@@ -1840,11 +1840,11 @@
         <v>78</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="50">
         <f>VLOOKUP(C5,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="44"/>
     </row>
@@ -1854,11 +1854,11 @@
         <v>79</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="50">
         <f>VLOOKUP(C6,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="44"/>
     </row>
@@ -1868,11 +1868,11 @@
         <v>80</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D7" s="50">
         <f>VLOOKUP(C7,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="44"/>
     </row>
@@ -1882,11 +1882,11 @@
         <v>81</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D8" s="50">
         <f>VLOOKUP(C8,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="44"/>
     </row>
@@ -1896,11 +1896,11 @@
         <v>82</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D9" s="50">
         <f>VLOOKUP(C9,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="44"/>
     </row>
@@ -1912,11 +1912,11 @@
         <v>75</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="50">
         <f>VLOOKUP(C10,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="35"/>
     </row>
@@ -1926,11 +1926,11 @@
         <v>76</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="50">
         <f>VLOOKUP(C11,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="23"/>
     </row>
@@ -1940,11 +1940,11 @@
         <v>77</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="50">
         <f>VLOOKUP(C12,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="23"/>
     </row>
@@ -1954,11 +1954,11 @@
         <v>78</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="50">
         <f>VLOOKUP(C13,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="44"/>
     </row>
@@ -1968,11 +1968,11 @@
         <v>79</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="50">
         <f>VLOOKUP(C14,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="44"/>
     </row>
@@ -1982,11 +1982,11 @@
         <v>80</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="50">
         <f>VLOOKUP(C15,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="44"/>
     </row>
@@ -1996,11 +1996,11 @@
         <v>81</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="50">
         <f>VLOOKUP(C16,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="44"/>
     </row>
@@ -2010,11 +2010,11 @@
         <v>82</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="50">
         <f>VLOOKUP(C17,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="44"/>
     </row>
@@ -2101,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>14</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="D26" s="43">
         <f>SUM(D2:D22)</f>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E26" s="66"/>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B28" s="12">
         <f ca="1">NOW()</f>
-        <v>44703.910789236113</v>
+        <v>44703.969682407405</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>11</v>
@@ -2196,18 +2196,18 @@
       </c>
       <c r="B29" s="13">
         <f>(pts_grandtotal/nb_points)</f>
-        <v>0.7</v>
+        <v>0.81</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="4">
         <f>pts_soustotal-pts_retard-pts_francais</f>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E29" s="28" t="str">
         <f>"Note finale: "&amp;pts_grandtotal/nb_points*100&amp;"%"</f>
-        <v>Note finale: 70%</v>
+        <v>Note finale: 81%</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
